--- a/analysis/supplementary-materials/Table_S9.xlsx
+++ b/analysis/supplementary-materials/Table_S9.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/polynesianoutliersvoyaging/analysis/supplementary-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ECD5F1-97A8-974A-8D6D-FC1AF75C8475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB538D-2263-AE48-89E7-AC532C43B7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="26480" windowHeight="16200" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,10 +241,10 @@
     <t>KS094 [11][12]; 70512 [13]</t>
   </si>
   <si>
-    <t>Little isotopic data in support of Hawai'i as a source.</t>
-  </si>
-  <si>
     <t>Little isotopic data in support of a source in Hawai'i or Caroline Islands.</t>
+  </si>
+  <si>
+    <t>Little isotopic data in support of Hawai'i as a source. Isotopic data from dredge samples collected in the northwest Lau and north Fiji Basins are the closer isotopic field, which indicates that the geochemically unknown islands in this region might be the actual source.</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -950,14 +950,14 @@
       <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">

--- a/analysis/supplementary-materials/Table_S9.xlsx
+++ b/analysis/supplementary-materials/Table_S9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/polynesianoutliersvoyaging/analysis/supplementary-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DB538D-2263-AE48-89E7-AC532C43B7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F15CB3D-1A4F-4649-A77E-51C9E964AEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="26480" windowHeight="16200" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Island</t>
   </si>
@@ -98,33 +98,15 @@
     <t>Vanuatu Arc or Luzon Arc</t>
   </si>
   <si>
-    <t>Assigned Source based on isotopic composition (Volcanic Arc / Island Group)</t>
-  </si>
-  <si>
-    <t>Assigned Source based on elemental composition (Island Group : Island : Locality)</t>
-  </si>
-  <si>
     <t>Vanuatu : Emae</t>
   </si>
   <si>
-    <t>Vanuatu : Vanua Lava : Ambek</t>
-  </si>
-  <si>
-    <t>Vanuatu Arc or Sulawesi Arc</t>
-  </si>
-  <si>
-    <t>Vanuatu Arc or Fiji-Tonga Arc</t>
-  </si>
-  <si>
     <t>Samoan Islands</t>
   </si>
   <si>
     <t>Caroline Islands</t>
   </si>
   <si>
-    <t>Little or no data available for Yap Arc / Palau, which could be the actual source.</t>
-  </si>
-  <si>
     <t>Most compatible source samples and bibliographical reference</t>
   </si>
   <si>
@@ -134,13 +116,6 @@
     <t>No isotopic data available for the obsidian sources of North Vanuatu.</t>
   </si>
   <si>
-    <t>Little isotopic data available for the Bismarck Arc with the range of 206Pb/204Pb values around K-12-28.</t>
-  </si>
-  <si>
-    <t>Bismarck Arc : Manam Island or 
-Bismarck Arc : New Britain : Dakatau</t>
-  </si>
-  <si>
     <t>[1] C. Reepmeyer, Characterising volcanic glass sources in the Banks Islands, Vanuatu. Archaeology in Oceania. 43, 120–127 (2008).</t>
   </si>
   <si>
@@ -156,27 +131,6 @@
     <t>[3] D. P. Mattey, The minor and trace element geochemistry of volcanic rocks from Truk, Ponape and Kusaie, Eastern Caroline Islands; the evolution of a young hot spot trace across Old Pacific Ocean Crust. Contr. Mineral. and Petrol. 80, 1–13 (1982).</t>
   </si>
   <si>
-    <t>[8] J. D. Woodhead, R. W. Johnson, Isotopic and trace-element profiles across the New Britain island arc, Papua New Guinea. Contr. Mineral. and Petrol. 113, 479–491 (1993).</t>
-  </si>
-  <si>
-    <t>[9] J. D. Woodhead, S. M. Eggins, R. W. Johnson, Magma Genesis in the New Britain Island Arc: Further Insights into Melting and Mass Transfer Processes. Journal of Petrology. 39, 1641–1668 (1998).</t>
-  </si>
-  <si>
-    <t>13440-GN1/4 [8][9]; 634323,634326 [10]</t>
-  </si>
-  <si>
-    <t>[10] H. Cunningham, J. Gill, S. Turner, J. Caulfield, L. Edwards, S. Day, Rapid magmatic processes accompany arc–continent collision: the Western Bismarck arc, Papua New Guinea. Contrib Mineral Petrol. 164, 789–804 (2012).</t>
-  </si>
-  <si>
-    <t>[11] J. Deng, X. Yang, R. E. Zartman, H. Qi, L. Zhang, H. Liu, Z. Zhang, A. S. Mastoi, A. E. G. Berador, W. Sun, Early cretaceous transformation from Pacific to Neo-Tethys subduction in the SW Pacific Ocean: Constraints from Pb-Sr-Nd-Hf isotopes of the Philippine arc. Geochimica et Cosmochimica Acta. 285, 21–40 (2020).</t>
-  </si>
-  <si>
-    <t>[12] J. Deng, X. Yang, Z.-F. Zhang, M. Santosh, Early Cretaceous arc volcanic suite in Cebu Island, Central Philippines and its implications on paleo-Pacific plate subduction: Constraints from geochemistry, zircon U–Pb geochronology and Lu–Hf isotopes. Lithos. 230, 166–179 (2015).</t>
-  </si>
-  <si>
-    <t>[13] D. W. Peate, J. A. Pearce, C. J. Hawkesworth, H. Colley, C. M. H. Edwards, K. Hirose, Geochemical Variations in Vanuatu Arc Lavas: the Role of Subducted Material and a Variable Mantle Wedge Composition. Journal of Petrology. 38, 1331–1358 (1997).</t>
-  </si>
-  <si>
     <t>KC−05−19, KC−05−14 [2]</t>
   </si>
   <si>
@@ -192,59 +146,71 @@
     <t>[5] G.-L. Zhang, S. Wang, J. Zhang, M.-J. Zhan, Z.-H. Zhao, Evidence for the essential role of CO2 in the volcanism of the waning Caroline mantle plume. Geochimica et Cosmochimica Acta. 290, 391–407 (2020).</t>
   </si>
   <si>
-    <t>34227 [3]; 120903-KOS13-4 [4] ; 
-1867349,1867355 [5]</t>
-  </si>
-  <si>
-    <t>34330-71KAUH-2 [6]; 370017, 370018, 370023, 370024 [7]</t>
-  </si>
-  <si>
-    <t>[6] D. A. Clague, Age and petrology of the Kalaupapa Basalt, Molokai, Hawaii. Pacific Science. 36, 411–420 (1982).</t>
-  </si>
-  <si>
-    <t>[7] J. Dixon, D. A. Clague, B. Cousens, M. L. Monsalve, J. Uhl, Carbonatite and silicate melt metasomatism of the mantle surrounding the Hawaiian plume: Evidence from volatiles, trace elements, and radiogenic isotopes in rejuvenated-stage lavas from Niihau, Hawaii. Geochemistry, Geophysics, Geosystems. 9 (2008), doi:10.1029/2008GC002076.</t>
-  </si>
-  <si>
-    <t>Hawai'i : Moloka'i or Hawai'i : Ni'ihau</t>
-  </si>
-  <si>
-    <t>1175187,1175189 [4], 1867336,1867337 [5]</t>
-  </si>
-  <si>
     <t>ANU9006, ANU9009, ANU9008 [1]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hawai'i : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or Caroline : Ponape</t>
-    </r>
-  </si>
-  <si>
-    <t>Philippines : Cebu or Vanuatu : Vanua Lava</t>
-  </si>
-  <si>
-    <t>KS094 [11][12]; 70512 [13]</t>
-  </si>
-  <si>
-    <t>Little isotopic data in support of a source in Hawai'i or Caroline Islands.</t>
-  </si>
-  <si>
-    <t>Little isotopic data in support of Hawai'i as a source. Isotopic data from dredge samples collected in the northwest Lau and north Fiji Basins are the closer isotopic field, which indicates that the geochemically unknown islands in this region might be the actual source.</t>
+    <t>Assigned Source based on elemental composition (Island Group : Island)</t>
+  </si>
+  <si>
+    <t>Assigned Source based on isotopic composition</t>
+  </si>
+  <si>
+    <t>Vanuatu : Vanua Lava (Ambek)</t>
+  </si>
+  <si>
+    <t>Vanuatu Arc or Bismarck Arc or Fiji-Tonga</t>
+  </si>
+  <si>
+    <t>Bismarck Arc : New Britain : Sulu Range or
+Bismarck Arc : New Britain : Ulawun volcano</t>
+  </si>
+  <si>
+    <t>Little isotopic data available for the Bismarck Arc with the range of 206Pb/204Pb values fitting K-12-28.</t>
+  </si>
+  <si>
+    <t>Isotopic and geochemical signature of K-12-29 fitting Luzon Arc, Sulawesi Arc, Vanuatu Arc and Tonga-Fiji. But comparable high-K calc-alkaline series only in Luzon Arc (Cebu).</t>
+  </si>
+  <si>
+    <t>Philippines : Cebu</t>
+  </si>
+  <si>
+    <t>[6] J.-I. Lee, S.-D. Hur, B.-K. Park, S.-J. Han, Geochemistry and K-Ar Age of Alkali Basalts from Weno Island, Caroline Islands, Western Pacific. Ocean and Polar Research. 23, 23–34 (2001).</t>
+  </si>
+  <si>
+    <t>Caroline : Chuuk</t>
+  </si>
+  <si>
+    <t>Little isotopic data in support of Caroline Islands but no other trend fits. K-12-25 is compatible with tholeiitic basalts in Chuuk Island in the Caroline group.</t>
+  </si>
+  <si>
+    <t>143075, 143077 [6]</t>
+  </si>
+  <si>
+    <t>144138-KS094 [9][10]</t>
+  </si>
+  <si>
+    <t>[10] J. Deng, X. Yang, Z.-F. Zhang, M. Santosh, Early Cretaceous arc volcanic suite in Cebu Island, Central Philippines and its implications on paleo-Pacific plate subduction: Constraints from geochemistry, zircon U–Pb geochronology and Lu–Hf isotopes. Lithos. 230, 166–179 (2015).</t>
+  </si>
+  <si>
+    <t>[9] J. Deng, X. Yang, R. E. Zartman, H. Qi, L. Zhang, H. Liu, Z. Zhang, A. S. Mastoi, A. E. G. Berador, W. Sun, Early cretaceous transformation from Pacific to Neo-Tethys subduction in the SW Pacific Ocean: Constraints from Pb-Sr-Nd-Hf isotopes of the Philippine arc. Geochimica et Cosmochimica Acta. 285, 21–40 (2020).</t>
+  </si>
+  <si>
+    <t>[8] J. D. Woodhead, S. M. Eggins, R. W. Johnson, Magma Genesis in the New Britain Island Arc: Further Insights into Melting and Mass Transfer Processes. Journal of Petrology. 39, 1641–1668 (1998).</t>
+  </si>
+  <si>
+    <t>[7] J. D. Woodhead, R. W. Johnson, Isotopic and trace-element profiles across the New Britain island arc, Papua New Guinea. Contr. Mineral. and Petrol. 113, 479–491 (1993).</t>
+  </si>
+  <si>
+    <t>Little isotopic data in support of Caroline Islands but no other trend fits. K-12-26 is compatible with Ponape and Kosrae basanites.</t>
+  </si>
+  <si>
+    <t>13436-2649, 13436-2654A, 13423-E5/11[7][8]</t>
+  </si>
+  <si>
+    <t>34227 [3]; 120903-KOS13-4 [4] ; 1867349,1867355 [5]</t>
+  </si>
+  <si>
+    <t>1175178 [4] ; 1867324, 1867344 [5]</t>
   </si>
 </sst>
 </file>
@@ -293,7 +259,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -400,12 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,20 +675,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF42E7-F512-F94F-8CCF-23BE2C4E9229}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32" style="10" customWidth="1"/>
-    <col min="6" max="6" width="59.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="44" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="39.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -746,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -769,13 +723,13 @@
         <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -786,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -804,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -822,13 +776,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -840,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -858,13 +812,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -876,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -894,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -912,13 +866,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -930,17 +884,17 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -948,16 +902,16 @@
         <v>13</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -968,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -988,19 +942,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1008,16 +962,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1030,7 +984,7 @@
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -1039,7 +993,7 @@
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1048,7 +1002,7 @@
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -1057,7 +1011,7 @@
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -1066,7 +1020,7 @@
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1075,7 +1029,7 @@
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1084,7 +1038,7 @@
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1093,7 +1047,7 @@
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -1102,7 +1056,7 @@
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -1111,60 +1065,47 @@
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="A29" s="11"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
